--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam11-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam11-Itga4.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.114041</v>
+        <v>0.092903</v>
       </c>
       <c r="H2">
-        <v>0.342123</v>
+        <v>0.278709</v>
       </c>
       <c r="I2">
-        <v>0.07100488927427132</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="J2">
-        <v>0.07100488927427133</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N2">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q2">
-        <v>2.612279824377</v>
+        <v>0.002163339258</v>
       </c>
       <c r="R2">
-        <v>23.510518419393</v>
+        <v>0.019470053322</v>
       </c>
       <c r="S2">
-        <v>0.06707149284886531</v>
+        <v>0.0003351895891715539</v>
       </c>
       <c r="T2">
-        <v>0.06707149284886532</v>
+        <v>0.0003351895891715539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.114041</v>
+        <v>0.092903</v>
       </c>
       <c r="H3">
-        <v>0.342123</v>
+        <v>0.278709</v>
       </c>
       <c r="I3">
-        <v>0.07100488927427132</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="J3">
-        <v>0.07100488927427133</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q3">
-        <v>0.01515825369266666</v>
+        <v>0.01234860482466666</v>
       </c>
       <c r="R3">
-        <v>0.136424283234</v>
+        <v>0.111137443422</v>
       </c>
       <c r="S3">
-        <v>0.000389195175287719</v>
+        <v>0.00191330313205174</v>
       </c>
       <c r="T3">
-        <v>0.0003891951752877191</v>
+        <v>0.00191330313205174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.114041</v>
+        <v>0.092903</v>
       </c>
       <c r="H4">
-        <v>0.342123</v>
+        <v>0.278709</v>
       </c>
       <c r="I4">
-        <v>0.07100488927427132</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="J4">
-        <v>0.07100488927427133</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N4">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q4">
-        <v>0.1380384575616667</v>
+        <v>0.2178375918226667</v>
       </c>
       <c r="R4">
-        <v>1.242346118055</v>
+        <v>1.960538326404</v>
       </c>
       <c r="S4">
-        <v>0.00354420125011828</v>
+        <v>0.03375193818498175</v>
       </c>
       <c r="T4">
-        <v>0.00354420125011828</v>
+        <v>0.03375193818498175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.876414</v>
       </c>
       <c r="I5">
-        <v>0.181892708261126</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="J5">
-        <v>0.1818927082611261</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N5">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q5">
-        <v>6.691858220586001</v>
+        <v>0.006802725468000001</v>
       </c>
       <c r="R5">
-        <v>60.22672398527401</v>
+        <v>0.06122452921200001</v>
       </c>
       <c r="S5">
-        <v>0.1718165552554065</v>
+        <v>0.001054019958466351</v>
       </c>
       <c r="T5">
-        <v>0.1718165552554065</v>
+        <v>0.001054019958466351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.876414</v>
       </c>
       <c r="I6">
-        <v>0.181892708261126</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="J6">
-        <v>0.1818927082611261</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q6">
         <v>0.03883078820133333</v>
@@ -818,10 +818,10 @@
         <v>0.349477093812</v>
       </c>
       <c r="S6">
-        <v>0.0009969984489631243</v>
+        <v>0.006016474714393843</v>
       </c>
       <c r="T6">
-        <v>0.0009969984489631245</v>
+        <v>0.006016474714393845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.876414</v>
       </c>
       <c r="I7">
-        <v>0.181892708261126</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="J7">
-        <v>0.1818927082611261</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N7">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q7">
-        <v>0.3536121124433333</v>
+        <v>0.6850008977093335</v>
       </c>
       <c r="R7">
-        <v>3.18250901199</v>
+        <v>6.165008079384001</v>
       </c>
       <c r="S7">
-        <v>0.009079154556756378</v>
+        <v>0.106134610480654</v>
       </c>
       <c r="T7">
-        <v>0.009079154556756378</v>
+        <v>0.106134610480654</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.199921666666667</v>
+        <v>2.195567</v>
       </c>
       <c r="H8">
-        <v>3.599765</v>
+        <v>6.586701</v>
       </c>
       <c r="I8">
-        <v>0.7471024024646026</v>
+        <v>0.8507944639402807</v>
       </c>
       <c r="J8">
-        <v>0.7471024024646027</v>
+        <v>0.8507944639402808</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N8">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q8">
-        <v>27.486002057735</v>
+        <v>0.051125973162</v>
       </c>
       <c r="R8">
-        <v>247.374018519615</v>
+        <v>0.460133758458</v>
       </c>
       <c r="S8">
-        <v>0.7057158169871526</v>
+        <v>0.007921500928157551</v>
       </c>
       <c r="T8">
-        <v>0.7057158169871527</v>
+        <v>0.007921500928157554</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.199921666666667</v>
+        <v>2.195567</v>
       </c>
       <c r="H9">
-        <v>3.599765</v>
+        <v>6.586701</v>
       </c>
       <c r="I9">
-        <v>0.7471024024646026</v>
+        <v>0.8507944639402807</v>
       </c>
       <c r="J9">
-        <v>0.7471024024646027</v>
+        <v>0.8507944639402808</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q9">
-        <v>0.1594927879855555</v>
+        <v>0.2918333019286666</v>
       </c>
       <c r="R9">
-        <v>1.43543509187</v>
+        <v>2.626499717358</v>
       </c>
       <c r="S9">
-        <v>0.004095051107845996</v>
+        <v>0.04521689523190255</v>
       </c>
       <c r="T9">
-        <v>0.004095051107845997</v>
+        <v>0.04521689523190256</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.199921666666667</v>
+        <v>2.195567</v>
       </c>
       <c r="H10">
-        <v>3.599765</v>
+        <v>6.586701</v>
       </c>
       <c r="I10">
-        <v>0.7471024024646026</v>
+        <v>0.8507944639402807</v>
       </c>
       <c r="J10">
-        <v>0.7471024024646027</v>
+        <v>0.8507944639402808</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N10">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q10">
-        <v>1.452419183113889</v>
+        <v>5.148133299950667</v>
       </c>
       <c r="R10">
-        <v>13.071772648025</v>
+        <v>46.333199699556</v>
       </c>
       <c r="S10">
-        <v>0.03729153436960399</v>
+        <v>0.7976560677802206</v>
       </c>
       <c r="T10">
-        <v>0.03729153436960399</v>
+        <v>0.7976560677802207</v>
       </c>
     </row>
   </sheetData>
